--- a/Pennoni Younglings 2022.xlsx
+++ b/Pennoni Younglings 2022.xlsx
@@ -10,14 +10,16 @@
     <sheet name="Schedule Grid" sheetId="1" r:id="rId1"/>
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
-    <sheet name="Louie Power Index" sheetId="4" r:id="rId4"/>
+    <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
+    <sheet name="Louie Power Index" sheetId="5" r:id="rId5"/>
+    <sheet name="LPI By Week" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="69">
   <si>
     <t>PAI Athletic Director</t>
   </si>
@@ -55,60 +57,102 @@
     <t>Team Cogs</t>
   </si>
   <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>11-3-0</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>12-2-0</t>
+  </si>
+  <si>
+    <t>2-12-0</t>
+  </si>
+  <si>
+    <t>1-13-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
+  </si>
+  <si>
+    <t>13-1-0</t>
+  </si>
+  <si>
     <t>Teams</t>
   </si>
   <si>
-    <t>4 - 10 - 0</t>
-  </si>
-  <si>
-    <t>7 - 7 - 0</t>
-  </si>
-  <si>
-    <t>11 - 3 - 0</t>
-  </si>
-  <si>
-    <t>5 - 9 - 0</t>
-  </si>
-  <si>
-    <t>8 - 6 - 0</t>
-  </si>
-  <si>
-    <t>9 - 5 - 0</t>
-  </si>
-  <si>
-    <t>6 - 8 - 0</t>
-  </si>
-  <si>
-    <t>10 - 4 - 0</t>
-  </si>
-  <si>
-    <t>12 - 2 - 0</t>
-  </si>
-  <si>
-    <t>2 - 12 - 0</t>
-  </si>
-  <si>
-    <t>1 - 13 - 0</t>
-  </si>
-  <si>
-    <t>3 - 11 - 0</t>
-  </si>
-  <si>
-    <t>13 - 1 - 0</t>
-  </si>
-  <si>
-    <t>Avg Wins Against Schedule</t>
+    <t>Wins Against Schedule</t>
   </si>
   <si>
     <t>Record</t>
   </si>
   <si>
+    <t>Team</t>
+  </si>
+  <si>
     <t>Expected Wins</t>
   </si>
   <si>
     <t>Difference</t>
   </si>
   <si>
+    <t>Place 1</t>
+  </si>
+  <si>
+    <t>Place 2</t>
+  </si>
+  <si>
+    <t>Place 3</t>
+  </si>
+  <si>
+    <t>Place 4</t>
+  </si>
+  <si>
+    <t>Place 5</t>
+  </si>
+  <si>
+    <t>Place 6</t>
+  </si>
+  <si>
+    <t>Place 7</t>
+  </si>
+  <si>
+    <t>Place 8</t>
+  </si>
+  <si>
+    <t>Place 9</t>
+  </si>
+  <si>
+    <t>Place 10</t>
+  </si>
+  <si>
+    <t>Place 11</t>
+  </si>
+  <si>
+    <t>Place 12</t>
+  </si>
+  <si>
+    <t>Chance of making playoffs</t>
+  </si>
+  <si>
     <t>Louie Power Index (LPI)</t>
   </si>
   <si>
@@ -140,6 +184,48 @@
   </si>
   <si>
     <t>↑4</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
 </sst>
 </file>
@@ -504,9 +590,6 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,40 +632,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
       <c r="L2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -590,40 +673,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" t="s">
-        <v>17</v>
-      </c>
       <c r="M3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -631,40 +714,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
       <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>18</v>
       </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -672,40 +755,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
         <v>23</v>
       </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" t="s">
-        <v>24</v>
-      </c>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -713,40 +796,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
         <v>16</v>
       </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -754,40 +837,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -795,40 +878,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" t="s">
         <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -836,40 +919,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -877,40 +960,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" t="s">
         <v>17</v>
       </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" t="s">
-        <v>18</v>
-      </c>
       <c r="M10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -918,40 +1001,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -959,40 +1042,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
         <v>17</v>
       </c>
-      <c r="H12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>18</v>
       </c>
-      <c r="J12" t="s">
-        <v>19</v>
-      </c>
       <c r="K12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1000,40 +1083,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s">
         <v>17</v>
       </c>
-      <c r="H13" t="s">
+      <c r="L13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" t="s">
         <v>20</v>
-      </c>
-      <c r="I13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1051,7 +1134,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
@@ -1062,7 +1145,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1071,12 +1154,12 @@
         <v>4.833333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -1085,12 +1168,12 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1099,12 +1182,12 @@
         <v>6.583333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1113,12 +1196,12 @@
         <v>6.916666666666667</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -1127,12 +1210,12 @@
         <v>7.166666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -1141,12 +1224,12 @@
         <v>7.25</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -1155,12 +1238,12 @@
         <v>7.333333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -1169,12 +1252,12 @@
         <v>7.333333333333333</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1183,12 +1266,12 @@
         <v>7.416666666666667</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -1197,12 +1280,12 @@
         <v>7.583333333333333</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -1211,12 +1294,12 @@
         <v>7.75</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1225,7 +1308,7 @@
         <v>7.833333333333333</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1243,13 +1326,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>27</v>
@@ -1257,7 +1340,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -1269,12 +1352,12 @@
         <v>-0.9166666666666661</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1286,12 +1369,12 @@
         <v>-0.75</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1303,12 +1386,12 @@
         <v>-0.3333333333333339</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -1320,12 +1403,12 @@
         <v>0.75</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -1337,12 +1420,12 @@
         <v>-0.583333333333333</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -1354,12 +1437,12 @@
         <v>0.08333333333333304</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -1371,12 +1454,12 @@
         <v>-0.08333333333333304</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -1388,12 +1471,12 @@
         <v>0.75</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -1405,12 +1488,12 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -1422,12 +1505,12 @@
         <v>1.083333333333333</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -1439,12 +1522,12 @@
         <v>0.25</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1456,7 +1539,7 @@
         <v>-0.25</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1465,6 +1548,591 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>65.86999999999999</v>
+      </c>
+      <c r="C2">
+        <v>20.95</v>
+      </c>
+      <c r="D2">
+        <v>7.81</v>
+      </c>
+      <c r="E2">
+        <v>3.28</v>
+      </c>
+      <c r="F2">
+        <v>1.2</v>
+      </c>
+      <c r="G2">
+        <v>0.59</v>
+      </c>
+      <c r="H2">
+        <v>0.26</v>
+      </c>
+      <c r="I2">
+        <v>0.03</v>
+      </c>
+      <c r="J2">
+        <v>0.01</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>99.98999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>13.07</v>
+      </c>
+      <c r="C3">
+        <v>24.31</v>
+      </c>
+      <c r="D3">
+        <v>19.12</v>
+      </c>
+      <c r="E3">
+        <v>15.35</v>
+      </c>
+      <c r="F3">
+        <v>11.25</v>
+      </c>
+      <c r="G3">
+        <v>7.73</v>
+      </c>
+      <c r="H3">
+        <v>5.18</v>
+      </c>
+      <c r="I3">
+        <v>3.03</v>
+      </c>
+      <c r="J3">
+        <v>0.84</v>
+      </c>
+      <c r="K3">
+        <v>0.11</v>
+      </c>
+      <c r="L3">
+        <v>0.01</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>99.03999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>10.97</v>
+      </c>
+      <c r="C4">
+        <v>18.96</v>
+      </c>
+      <c r="D4">
+        <v>19.73</v>
+      </c>
+      <c r="E4">
+        <v>16.45</v>
+      </c>
+      <c r="F4">
+        <v>12.79</v>
+      </c>
+      <c r="G4">
+        <v>9.66</v>
+      </c>
+      <c r="H4">
+        <v>6.569999999999999</v>
+      </c>
+      <c r="I4">
+        <v>3.72</v>
+      </c>
+      <c r="J4">
+        <v>0.98</v>
+      </c>
+      <c r="K4">
+        <v>0.17</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>98.84999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>3.12</v>
+      </c>
+      <c r="C5">
+        <v>8.44</v>
+      </c>
+      <c r="D5">
+        <v>11.75</v>
+      </c>
+      <c r="E5">
+        <v>13.26</v>
+      </c>
+      <c r="F5">
+        <v>14.1</v>
+      </c>
+      <c r="G5">
+        <v>15.26</v>
+      </c>
+      <c r="H5">
+        <v>14.02</v>
+      </c>
+      <c r="I5">
+        <v>12.41</v>
+      </c>
+      <c r="J5">
+        <v>5.87</v>
+      </c>
+      <c r="K5">
+        <v>1.48</v>
+      </c>
+      <c r="L5">
+        <v>0.24</v>
+      </c>
+      <c r="M5">
+        <v>0.05</v>
+      </c>
+      <c r="N5">
+        <v>92.35999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2.42</v>
+      </c>
+      <c r="C6">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="D6">
+        <v>11.68</v>
+      </c>
+      <c r="E6">
+        <v>12.97</v>
+      </c>
+      <c r="F6">
+        <v>14.36</v>
+      </c>
+      <c r="G6">
+        <v>14.64</v>
+      </c>
+      <c r="H6">
+        <v>13.94</v>
+      </c>
+      <c r="I6">
+        <v>12.89</v>
+      </c>
+      <c r="J6">
+        <v>6.94</v>
+      </c>
+      <c r="K6">
+        <v>1.78</v>
+      </c>
+      <c r="L6">
+        <v>0.3</v>
+      </c>
+      <c r="M6">
+        <v>0.04</v>
+      </c>
+      <c r="N6">
+        <v>90.94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2.26</v>
+      </c>
+      <c r="C7">
+        <v>8.01</v>
+      </c>
+      <c r="D7">
+        <v>11.91</v>
+      </c>
+      <c r="E7">
+        <v>13.88</v>
+      </c>
+      <c r="F7">
+        <v>14.48</v>
+      </c>
+      <c r="G7">
+        <v>14.39</v>
+      </c>
+      <c r="H7">
+        <v>14.64</v>
+      </c>
+      <c r="I7">
+        <v>11.89</v>
+      </c>
+      <c r="J7">
+        <v>6.77</v>
+      </c>
+      <c r="K7">
+        <v>1.39</v>
+      </c>
+      <c r="L7">
+        <v>0.27</v>
+      </c>
+      <c r="M7">
+        <v>0.11</v>
+      </c>
+      <c r="N7">
+        <v>91.46000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>1.42</v>
+      </c>
+      <c r="C8">
+        <v>6.77</v>
+      </c>
+      <c r="D8">
+        <v>10.14</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>14.59</v>
+      </c>
+      <c r="G8">
+        <v>14.94</v>
+      </c>
+      <c r="H8">
+        <v>15.09</v>
+      </c>
+      <c r="I8">
+        <v>13.29</v>
+      </c>
+      <c r="J8">
+        <v>7.66</v>
+      </c>
+      <c r="K8">
+        <v>2.38</v>
+      </c>
+      <c r="L8">
+        <v>0.5499999999999999</v>
+      </c>
+      <c r="M8">
+        <v>0.17</v>
+      </c>
+      <c r="N8">
+        <v>89.23999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0.8699999999999999</v>
+      </c>
+      <c r="C9">
+        <v>4.279999999999999</v>
+      </c>
+      <c r="D9">
+        <v>7.13</v>
+      </c>
+      <c r="E9">
+        <v>9.58</v>
+      </c>
+      <c r="F9">
+        <v>13.35</v>
+      </c>
+      <c r="G9">
+        <v>15.41</v>
+      </c>
+      <c r="H9">
+        <v>16.49</v>
+      </c>
+      <c r="I9">
+        <v>16.4</v>
+      </c>
+      <c r="J9">
+        <v>11.17</v>
+      </c>
+      <c r="K9">
+        <v>3.83</v>
+      </c>
+      <c r="L9">
+        <v>1.11</v>
+      </c>
+      <c r="M9">
+        <v>0.38</v>
+      </c>
+      <c r="N9">
+        <v>83.50999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.23</v>
+      </c>
+      <c r="D10">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="E10">
+        <v>2.14</v>
+      </c>
+      <c r="F10">
+        <v>3.53</v>
+      </c>
+      <c r="G10">
+        <v>6.47</v>
+      </c>
+      <c r="H10">
+        <v>10.91</v>
+      </c>
+      <c r="I10">
+        <v>17.83</v>
+      </c>
+      <c r="J10">
+        <v>28.1</v>
+      </c>
+      <c r="K10">
+        <v>17.39</v>
+      </c>
+      <c r="L10">
+        <v>8.93</v>
+      </c>
+      <c r="M10">
+        <v>3.78</v>
+      </c>
+      <c r="N10">
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.01</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0.01</v>
+      </c>
+      <c r="F11">
+        <v>0.02</v>
+      </c>
+      <c r="G11">
+        <v>0.12</v>
+      </c>
+      <c r="H11">
+        <v>0.42</v>
+      </c>
+      <c r="I11">
+        <v>1.56</v>
+      </c>
+      <c r="J11">
+        <v>6.76</v>
+      </c>
+      <c r="K11">
+        <v>19.01</v>
+      </c>
+      <c r="L11">
+        <v>28.53</v>
+      </c>
+      <c r="M11">
+        <v>43.56</v>
+      </c>
+      <c r="N11">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0.03</v>
+      </c>
+      <c r="E12">
+        <v>0.06</v>
+      </c>
+      <c r="F12">
+        <v>0.31</v>
+      </c>
+      <c r="G12">
+        <v>0.7100000000000001</v>
+      </c>
+      <c r="H12">
+        <v>1.97</v>
+      </c>
+      <c r="I12">
+        <v>5.149999999999999</v>
+      </c>
+      <c r="J12">
+        <v>16.56</v>
+      </c>
+      <c r="K12">
+        <v>27.61</v>
+      </c>
+      <c r="L12">
+        <v>24.98</v>
+      </c>
+      <c r="M12">
+        <v>22.62</v>
+      </c>
+      <c r="N12">
+        <v>8.229999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0.01</v>
+      </c>
+      <c r="E13">
+        <v>0.02</v>
+      </c>
+      <c r="F13">
+        <v>0.02</v>
+      </c>
+      <c r="G13">
+        <v>0.08</v>
+      </c>
+      <c r="H13">
+        <v>0.51</v>
+      </c>
+      <c r="I13">
+        <v>1.8</v>
+      </c>
+      <c r="J13">
+        <v>8.34</v>
+      </c>
+      <c r="K13">
+        <v>24.85</v>
+      </c>
+      <c r="L13">
+        <v>35.08</v>
+      </c>
+      <c r="M13">
+        <v>29.29</v>
+      </c>
+      <c r="N13">
+        <v>2.44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -1474,21 +2142,21 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -1497,15 +2165,15 @@
         <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1514,15 +2182,15 @@
         <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1531,15 +2199,15 @@
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -1548,15 +2216,15 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -1565,15 +2233,15 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1582,15 +2250,15 @@
         <v>-2</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -1599,15 +2267,15 @@
         <v>-6</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -1616,15 +2284,15 @@
         <v>-8</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -1633,15 +2301,15 @@
         <v>-11</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -1650,15 +2318,15 @@
         <v>-16</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -1667,15 +2335,15 @@
         <v>-37</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1684,10 +2352,709 @@
         <v>-49</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>-2</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>21</v>
+      </c>
+      <c r="I2">
+        <v>21</v>
+      </c>
+      <c r="J2">
+        <v>24</v>
+      </c>
+      <c r="K2">
+        <v>28</v>
+      </c>
+      <c r="L2">
+        <v>37</v>
+      </c>
+      <c r="M2">
+        <v>37</v>
+      </c>
+      <c r="N2">
+        <v>39</v>
+      </c>
+      <c r="O2">
+        <v>41</v>
+      </c>
+      <c r="P2">
+        <v>44</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3">
+        <v>-1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>19</v>
+      </c>
+      <c r="J3">
+        <v>25</v>
+      </c>
+      <c r="K3">
+        <v>27</v>
+      </c>
+      <c r="L3">
+        <v>30</v>
+      </c>
+      <c r="M3">
+        <v>31</v>
+      </c>
+      <c r="N3">
+        <v>31</v>
+      </c>
+      <c r="O3">
+        <v>36</v>
+      </c>
+      <c r="P3">
+        <v>35</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>-2</v>
+      </c>
+      <c r="D4">
+        <v>-3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <v>21</v>
+      </c>
+      <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>30</v>
+      </c>
+      <c r="L4">
+        <v>35</v>
+      </c>
+      <c r="M4">
+        <v>35</v>
+      </c>
+      <c r="N4">
+        <v>30</v>
+      </c>
+      <c r="O4">
+        <v>34</v>
+      </c>
+      <c r="P4">
+        <v>32</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>-1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>-4</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>6</v>
+      </c>
+      <c r="O5">
+        <v>12</v>
+      </c>
+      <c r="P5">
+        <v>18</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>-2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>-4</v>
+      </c>
+      <c r="F6">
+        <v>-5</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>-1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>9</v>
+      </c>
+      <c r="L6">
+        <v>7</v>
+      </c>
+      <c r="M6">
+        <v>9</v>
+      </c>
+      <c r="N6">
+        <v>10</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <v>-3</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>-3</v>
+      </c>
+      <c r="I7">
+        <v>-11</v>
+      </c>
+      <c r="J7">
+        <v>-10</v>
+      </c>
+      <c r="K7">
+        <v>-17</v>
+      </c>
+      <c r="L7">
+        <v>-10</v>
+      </c>
+      <c r="M7">
+        <v>-7</v>
+      </c>
+      <c r="N7">
+        <v>-7</v>
+      </c>
+      <c r="O7">
+        <v>-2</v>
+      </c>
+      <c r="P7">
+        <v>-2</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>17</v>
+      </c>
+      <c r="I8">
+        <v>16</v>
+      </c>
+      <c r="J8">
+        <v>17</v>
+      </c>
+      <c r="K8">
+        <v>17</v>
+      </c>
+      <c r="L8">
+        <v>15</v>
+      </c>
+      <c r="M8">
+        <v>9</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>-7</v>
+      </c>
+      <c r="P8">
+        <v>-6</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>-2</v>
+      </c>
+      <c r="I9">
+        <v>-7</v>
+      </c>
+      <c r="J9">
+        <v>-3</v>
+      </c>
+      <c r="K9">
+        <v>-8</v>
+      </c>
+      <c r="L9">
+        <v>-8</v>
+      </c>
+      <c r="M9">
+        <v>-4</v>
+      </c>
+      <c r="N9">
+        <v>-2</v>
+      </c>
+      <c r="O9">
+        <v>-9</v>
+      </c>
+      <c r="P9">
+        <v>-8</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>-4</v>
+      </c>
+      <c r="D10">
+        <v>-7</v>
+      </c>
+      <c r="E10">
+        <v>-13</v>
+      </c>
+      <c r="F10">
+        <v>-14</v>
+      </c>
+      <c r="G10">
+        <v>-17</v>
+      </c>
+      <c r="H10">
+        <v>-16</v>
+      </c>
+      <c r="I10">
+        <v>-7</v>
+      </c>
+      <c r="J10">
+        <v>-10</v>
+      </c>
+      <c r="K10">
+        <v>-12</v>
+      </c>
+      <c r="L10">
+        <v>-15</v>
+      </c>
+      <c r="M10">
+        <v>-14</v>
+      </c>
+      <c r="N10">
+        <v>-11</v>
+      </c>
+      <c r="O10">
+        <v>-4</v>
+      </c>
+      <c r="P10">
+        <v>-11</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>-7</v>
+      </c>
+      <c r="I11">
+        <v>-13</v>
+      </c>
+      <c r="J11">
+        <v>-9</v>
+      </c>
+      <c r="K11">
+        <v>-9</v>
+      </c>
+      <c r="L11">
+        <v>-14</v>
+      </c>
+      <c r="M11">
+        <v>-22</v>
+      </c>
+      <c r="N11">
+        <v>-20</v>
+      </c>
+      <c r="O11">
+        <v>-17</v>
+      </c>
+      <c r="P11">
+        <v>-16</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>-1</v>
+      </c>
+      <c r="E12">
+        <v>-5</v>
+      </c>
+      <c r="F12">
+        <v>-7</v>
+      </c>
+      <c r="G12">
+        <v>-8</v>
+      </c>
+      <c r="H12">
+        <v>-13</v>
+      </c>
+      <c r="I12">
+        <v>-15</v>
+      </c>
+      <c r="J12">
+        <v>-20</v>
+      </c>
+      <c r="K12">
+        <v>-27</v>
+      </c>
+      <c r="L12">
+        <v>-30</v>
+      </c>
+      <c r="M12">
+        <v>-32</v>
+      </c>
+      <c r="N12">
+        <v>-32</v>
+      </c>
+      <c r="O12">
+        <v>-32</v>
+      </c>
+      <c r="P12">
+        <v>-37</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>-4</v>
+      </c>
+      <c r="D13">
+        <v>-7</v>
+      </c>
+      <c r="E13">
+        <v>-11</v>
+      </c>
+      <c r="F13">
+        <v>-16</v>
+      </c>
+      <c r="G13">
+        <v>-21</v>
+      </c>
+      <c r="H13">
+        <v>-24</v>
+      </c>
+      <c r="I13">
+        <v>-27</v>
+      </c>
+      <c r="J13">
+        <v>-34</v>
+      </c>
+      <c r="K13">
+        <v>-39</v>
+      </c>
+      <c r="L13">
+        <v>-43</v>
+      </c>
+      <c r="M13">
+        <v>-44</v>
+      </c>
+      <c r="N13">
+        <v>-46</v>
+      </c>
+      <c r="O13">
+        <v>-53</v>
+      </c>
+      <c r="P13">
+        <v>-49</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Pennoni Younglings 2022.xlsx
+++ b/Pennoni Younglings 2022.xlsx
@@ -13,13 +13,14 @@
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
     <sheet name="Louie Power Index" sheetId="5" r:id="rId5"/>
     <sheet name="LPI By Week" sheetId="6" r:id="rId6"/>
+    <sheet name="Biggest Upsets" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="89">
   <si>
     <t>PAI Athletic Director</t>
   </si>
@@ -153,12 +154,51 @@
     <t>Chance of making playoffs</t>
   </si>
   <si>
+    <t>Owner</t>
+  </si>
+  <si>
     <t>Louie Power Index (LPI)</t>
   </si>
   <si>
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>nick coughlin</t>
+  </si>
+  <si>
+    <t>Chris Carbone</t>
+  </si>
+  <si>
+    <t>Louis Rodriguez</t>
+  </si>
+  <si>
+    <t>Michael  Celoni</t>
+  </si>
+  <si>
+    <t>Lake George</t>
+  </si>
+  <si>
+    <t>Henry Morris</t>
+  </si>
+  <si>
+    <t>Chris Holloway</t>
+  </si>
+  <si>
+    <t>Anthony Rizzo</t>
+  </si>
+  <si>
+    <t>Eli Brinker</t>
+  </si>
+  <si>
+    <t>PJ Murphy</t>
+  </si>
+  <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
+    <t>Marvin Ta</t>
+  </si>
+  <si>
     <t>↑3</t>
   </si>
   <si>
@@ -226,6 +266,27 @@
   </si>
   <si>
     <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Home Team</t>
+  </si>
+  <si>
+    <t>Away Team</t>
+  </si>
+  <si>
+    <t>Home LPI</t>
+  </si>
+  <si>
+    <t>Away LPI</t>
+  </si>
+  <si>
+    <t>LPI Difference</t>
+  </si>
+  <si>
+    <t>Winner</t>
   </si>
 </sst>
 </file>
@@ -1604,28 +1665,28 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>65.86999999999999</v>
+        <v>64.73</v>
       </c>
       <c r="C2">
-        <v>20.95</v>
+        <v>21.73</v>
       </c>
       <c r="D2">
-        <v>7.81</v>
+        <v>8.16</v>
       </c>
       <c r="E2">
-        <v>3.28</v>
+        <v>3.13</v>
       </c>
       <c r="F2">
-        <v>1.2</v>
+        <v>1.52</v>
       </c>
       <c r="G2">
-        <v>0.59</v>
+        <v>0.5</v>
       </c>
       <c r="H2">
-        <v>0.26</v>
+        <v>0.15</v>
       </c>
       <c r="I2">
-        <v>0.03</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="J2">
         <v>0.01</v>
@@ -1640,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>99.98999999999999</v>
+        <v>99.99000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1648,43 +1709,43 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13.07</v>
+        <v>13.39</v>
       </c>
       <c r="C3">
-        <v>24.31</v>
+        <v>23.25</v>
       </c>
       <c r="D3">
-        <v>19.12</v>
+        <v>19.41</v>
       </c>
       <c r="E3">
-        <v>15.35</v>
+        <v>14.17</v>
       </c>
       <c r="F3">
-        <v>11.25</v>
+        <v>11.32</v>
       </c>
       <c r="G3">
-        <v>7.73</v>
+        <v>8.219999999999999</v>
       </c>
       <c r="H3">
-        <v>5.18</v>
+        <v>5.510000000000001</v>
       </c>
       <c r="I3">
-        <v>3.03</v>
+        <v>3.59</v>
       </c>
       <c r="J3">
-        <v>0.84</v>
+        <v>0.97</v>
       </c>
       <c r="K3">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="L3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>99.03999999999999</v>
+        <v>98.86</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1692,31 +1753,31 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>10.97</v>
+        <v>11.14</v>
       </c>
       <c r="C4">
-        <v>18.96</v>
+        <v>19.09</v>
       </c>
       <c r="D4">
-        <v>19.73</v>
+        <v>20.88</v>
       </c>
       <c r="E4">
-        <v>16.45</v>
+        <v>16.48</v>
       </c>
       <c r="F4">
-        <v>12.79</v>
+        <v>12.39</v>
       </c>
       <c r="G4">
-        <v>9.66</v>
+        <v>9.569999999999999</v>
       </c>
       <c r="H4">
-        <v>6.569999999999999</v>
+        <v>5.87</v>
       </c>
       <c r="I4">
-        <v>3.72</v>
+        <v>3.35</v>
       </c>
       <c r="J4">
-        <v>0.98</v>
+        <v>1.06</v>
       </c>
       <c r="K4">
         <v>0.17</v>
@@ -1728,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>98.84999999999999</v>
+        <v>98.77000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1736,43 +1797,43 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>3.12</v>
+        <v>3.11</v>
       </c>
       <c r="C5">
-        <v>8.44</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="D5">
-        <v>11.75</v>
+        <v>10.57</v>
       </c>
       <c r="E5">
-        <v>13.26</v>
+        <v>13.63</v>
       </c>
       <c r="F5">
-        <v>14.1</v>
+        <v>14.39</v>
       </c>
       <c r="G5">
-        <v>15.26</v>
+        <v>14.5</v>
       </c>
       <c r="H5">
-        <v>14.02</v>
+        <v>14.94</v>
       </c>
       <c r="I5">
-        <v>12.41</v>
+        <v>12.45</v>
       </c>
       <c r="J5">
-        <v>5.87</v>
+        <v>6.18</v>
       </c>
       <c r="K5">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="L5">
-        <v>0.24</v>
+        <v>0.37</v>
       </c>
       <c r="M5">
         <v>0.05</v>
       </c>
       <c r="N5">
-        <v>92.35999999999999</v>
+        <v>91.98</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1780,43 +1841,43 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="C6">
-        <v>8.039999999999999</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="D6">
-        <v>11.68</v>
+        <v>11</v>
       </c>
       <c r="E6">
-        <v>12.97</v>
+        <v>12.99</v>
       </c>
       <c r="F6">
-        <v>14.36</v>
+        <v>14.98</v>
       </c>
       <c r="G6">
-        <v>14.64</v>
+        <v>14.78</v>
       </c>
       <c r="H6">
-        <v>13.94</v>
+        <v>14.38</v>
       </c>
       <c r="I6">
-        <v>12.89</v>
+        <v>11.94</v>
       </c>
       <c r="J6">
-        <v>6.94</v>
+        <v>6.9</v>
       </c>
       <c r="K6">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="L6">
-        <v>0.3</v>
+        <v>0.49</v>
       </c>
       <c r="M6">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="N6">
-        <v>90.94</v>
+        <v>90.88</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1824,43 +1885,43 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2.26</v>
+        <v>2.4</v>
       </c>
       <c r="C7">
-        <v>8.01</v>
+        <v>8.09</v>
       </c>
       <c r="D7">
-        <v>11.91</v>
+        <v>11.53</v>
       </c>
       <c r="E7">
-        <v>13.88</v>
+        <v>13.37</v>
       </c>
       <c r="F7">
-        <v>14.48</v>
+        <v>14.45</v>
       </c>
       <c r="G7">
-        <v>14.39</v>
+        <v>15.14</v>
       </c>
       <c r="H7">
-        <v>14.64</v>
+        <v>14.25</v>
       </c>
       <c r="I7">
-        <v>11.89</v>
+        <v>12.09</v>
       </c>
       <c r="J7">
-        <v>6.77</v>
+        <v>6.64</v>
       </c>
       <c r="K7">
-        <v>1.39</v>
+        <v>1.75</v>
       </c>
       <c r="L7">
-        <v>0.27</v>
+        <v>0.17</v>
       </c>
       <c r="M7">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="N7">
-        <v>91.46000000000001</v>
+        <v>91.31999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1868,43 +1929,43 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>1.42</v>
+        <v>1.8</v>
       </c>
       <c r="C8">
-        <v>6.77</v>
+        <v>6.29</v>
       </c>
       <c r="D8">
-        <v>10.14</v>
+        <v>10.07</v>
       </c>
       <c r="E8">
-        <v>13</v>
+        <v>13.41</v>
       </c>
       <c r="F8">
-        <v>14.59</v>
+        <v>14.3</v>
       </c>
       <c r="G8">
-        <v>14.94</v>
+        <v>15.17</v>
       </c>
       <c r="H8">
-        <v>15.09</v>
+        <v>15.01</v>
       </c>
       <c r="I8">
-        <v>13.29</v>
+        <v>12.78</v>
       </c>
       <c r="J8">
-        <v>7.66</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="K8">
-        <v>2.38</v>
+        <v>2.08</v>
       </c>
       <c r="L8">
-        <v>0.5499999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="M8">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="N8">
-        <v>89.23999999999999</v>
+        <v>88.83</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1912,43 +1973,43 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.8699999999999999</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="C9">
-        <v>4.279999999999999</v>
+        <v>4.52</v>
       </c>
       <c r="D9">
-        <v>7.13</v>
+        <v>7.380000000000001</v>
       </c>
       <c r="E9">
-        <v>9.58</v>
+        <v>10.69</v>
       </c>
       <c r="F9">
-        <v>13.35</v>
+        <v>12.78</v>
       </c>
       <c r="G9">
-        <v>15.41</v>
+        <v>14.26</v>
       </c>
       <c r="H9">
-        <v>16.49</v>
+        <v>16.16</v>
       </c>
       <c r="I9">
-        <v>16.4</v>
+        <v>16.76</v>
       </c>
       <c r="J9">
-        <v>11.17</v>
+        <v>11.16</v>
       </c>
       <c r="K9">
-        <v>3.83</v>
+        <v>3.95</v>
       </c>
       <c r="L9">
         <v>1.11</v>
       </c>
       <c r="M9">
-        <v>0.38</v>
+        <v>0.29</v>
       </c>
       <c r="N9">
-        <v>83.50999999999999</v>
+        <v>83.49000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1956,48 +2017,48 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="C10">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="D10">
-        <v>0.6899999999999999</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="E10">
-        <v>2.14</v>
+        <v>2.03</v>
       </c>
       <c r="F10">
-        <v>3.53</v>
+        <v>3.48</v>
       </c>
       <c r="G10">
-        <v>6.47</v>
+        <v>6.78</v>
       </c>
       <c r="H10">
-        <v>10.91</v>
+        <v>10.9</v>
       </c>
       <c r="I10">
-        <v>17.83</v>
+        <v>18.07</v>
       </c>
       <c r="J10">
-        <v>28.1</v>
+        <v>28.05</v>
       </c>
       <c r="K10">
-        <v>17.39</v>
+        <v>16.68</v>
       </c>
       <c r="L10">
-        <v>8.93</v>
+        <v>8.48</v>
       </c>
       <c r="M10">
-        <v>3.78</v>
+        <v>4.3</v>
       </c>
       <c r="N10">
-        <v>41.8</v>
+        <v>42.48999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2006,42 +2067,42 @@
         <v>0.01</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="E11">
-        <v>0.01</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="F11">
-        <v>0.02</v>
+        <v>0.34</v>
       </c>
       <c r="G11">
-        <v>0.12</v>
+        <v>0.74</v>
       </c>
       <c r="H11">
-        <v>0.42</v>
+        <v>1.82</v>
       </c>
       <c r="I11">
-        <v>1.56</v>
+        <v>5.53</v>
       </c>
       <c r="J11">
-        <v>6.76</v>
+        <v>15.55</v>
       </c>
       <c r="K11">
-        <v>19.01</v>
+        <v>27.57</v>
       </c>
       <c r="L11">
-        <v>28.53</v>
+        <v>25.35</v>
       </c>
       <c r="M11">
-        <v>43.56</v>
+        <v>22.94</v>
       </c>
       <c r="N11">
-        <v>2.14</v>
+        <v>8.59</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2050,42 +2111,42 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="F12">
-        <v>0.31</v>
+        <v>0.04</v>
       </c>
       <c r="G12">
-        <v>0.7100000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="H12">
-        <v>1.97</v>
+        <v>0.54</v>
       </c>
       <c r="I12">
-        <v>5.149999999999999</v>
+        <v>1.88</v>
       </c>
       <c r="J12">
-        <v>16.56</v>
+        <v>8.59</v>
       </c>
       <c r="K12">
-        <v>27.61</v>
+        <v>25.65</v>
       </c>
       <c r="L12">
-        <v>24.98</v>
+        <v>33.21</v>
       </c>
       <c r="M12">
-        <v>22.62</v>
+        <v>29.89</v>
       </c>
       <c r="N12">
-        <v>8.229999999999999</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2094,37 +2155,37 @@
         <v>0</v>
       </c>
       <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>0.01</v>
       </c>
-      <c r="E13">
-        <v>0.02</v>
-      </c>
       <c r="F13">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G13">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="H13">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
       <c r="I13">
-        <v>1.8</v>
+        <v>1.49</v>
       </c>
       <c r="J13">
-        <v>8.34</v>
+        <v>6.68</v>
       </c>
       <c r="K13">
-        <v>24.85</v>
+        <v>18.89</v>
       </c>
       <c r="L13">
-        <v>35.08</v>
+        <v>30.07</v>
       </c>
       <c r="M13">
-        <v>29.29</v>
+        <v>42.22</v>
       </c>
       <c r="N13">
-        <v>2.44</v>
+        <v>2.14</v>
       </c>
     </row>
   </sheetData>
@@ -2134,13 +2195,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
@@ -2148,214 +2209,253 @@
         <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2">
         <v>44</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3">
         <v>35</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
       <c r="E6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7">
         <v>-2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8">
         <v>-6</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9">
         <v>-8</v>
       </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
       <c r="E9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10">
         <v>-11</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11">
         <v>-16</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12">
         <v>-37</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13">
         <v>-49</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>12</v>
       </c>
-      <c r="E13" t="s">
-        <v>54</v>
+      <c r="F13" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2365,124 +2465,118 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
+      <c r="B2">
+        <v>-2</v>
       </c>
       <c r="C2">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>21</v>
       </c>
       <c r="I2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K2">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="L2">
         <v>37</v>
       </c>
       <c r="M2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2">
-        <v>41</v>
-      </c>
-      <c r="P2">
         <v>44</v>
       </c>
-      <c r="Q2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="P2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
+      <c r="B3">
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D3">
         <v>-1</v>
@@ -2491,502 +2585,475 @@
         <v>-1</v>
       </c>
       <c r="F3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I3">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3">
         <v>31</v>
       </c>
       <c r="N3">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="O3">
-        <v>36</v>
-      </c>
-      <c r="P3">
         <v>35</v>
       </c>
-      <c r="Q3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="P3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
+      <c r="B4">
+        <v>-2</v>
       </c>
       <c r="C4">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D4">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>9</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H4">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K4">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L4">
         <v>35</v>
       </c>
       <c r="M4">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O4">
-        <v>34</v>
-      </c>
-      <c r="P4">
         <v>32</v>
       </c>
-      <c r="Q4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="P4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>2</v>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
         <v>1</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
-      <c r="G5">
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>-1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>-4</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
         <v>6</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>-1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>-4</v>
-      </c>
-      <c r="M5">
-        <v>2</v>
-      </c>
       <c r="N5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O5">
-        <v>12</v>
-      </c>
-      <c r="P5">
         <v>18</v>
       </c>
-      <c r="Q5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="P5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
+      <c r="B6">
+        <v>-2</v>
       </c>
       <c r="C6">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D6">
+        <v>-4</v>
+      </c>
+      <c r="E6">
+        <v>-5</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="G6">
         <v>2</v>
       </c>
-      <c r="E6">
-        <v>-4</v>
-      </c>
-      <c r="F6">
-        <v>-5</v>
-      </c>
-      <c r="G6">
+      <c r="H6">
         <v>-1</v>
       </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
       <c r="I6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J6">
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <v>7</v>
+      </c>
+      <c r="L6">
+        <v>9</v>
+      </c>
+      <c r="M6">
+        <v>10</v>
+      </c>
+      <c r="N6">
         <v>1</v>
       </c>
-      <c r="K6">
-        <v>9</v>
-      </c>
-      <c r="L6">
-        <v>7</v>
-      </c>
-      <c r="M6">
-        <v>9</v>
-      </c>
-      <c r="N6">
-        <v>10</v>
-      </c>
       <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
         <v>0</v>
       </c>
-      <c r="Q6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="P6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
+      <c r="B7">
+        <v>-1</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
         <v>-3</v>
       </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
       <c r="H7">
-        <v>-3</v>
+        <v>-11</v>
       </c>
       <c r="I7">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="J7">
+        <v>-17</v>
+      </c>
+      <c r="K7">
         <v>-10</v>
       </c>
-      <c r="K7">
-        <v>-17</v>
-      </c>
       <c r="L7">
-        <v>-10</v>
+        <v>-7</v>
       </c>
       <c r="M7">
         <v>-7</v>
       </c>
       <c r="N7">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="O7">
         <v>-2</v>
       </c>
-      <c r="P7">
-        <v>-2</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="P7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
+      <c r="B8">
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H8">
+        <v>16</v>
+      </c>
+      <c r="I8">
         <v>17</v>
-      </c>
-      <c r="I8">
-        <v>16</v>
       </c>
       <c r="J8">
         <v>17</v>
       </c>
       <c r="K8">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="M8">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>-7</v>
       </c>
       <c r="O8">
-        <v>-7</v>
-      </c>
-      <c r="P8">
         <v>-6</v>
       </c>
-      <c r="Q8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="P8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
-        <v>1</v>
+      <c r="B9">
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="H9">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="I9">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="J9">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="K9">
         <v>-8</v>
       </c>
       <c r="L9">
+        <v>-4</v>
+      </c>
+      <c r="M9">
+        <v>-2</v>
+      </c>
+      <c r="N9">
+        <v>-9</v>
+      </c>
+      <c r="O9">
         <v>-8</v>
       </c>
-      <c r="M9">
-        <v>-4</v>
-      </c>
-      <c r="N9">
-        <v>-2</v>
-      </c>
-      <c r="O9">
-        <v>-9</v>
-      </c>
-      <c r="P9">
-        <v>-8</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="P9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
+      <c r="B10">
+        <v>-4</v>
       </c>
       <c r="C10">
+        <v>-7</v>
+      </c>
+      <c r="D10">
+        <v>-13</v>
+      </c>
+      <c r="E10">
+        <v>-14</v>
+      </c>
+      <c r="F10">
+        <v>-17</v>
+      </c>
+      <c r="G10">
+        <v>-16</v>
+      </c>
+      <c r="H10">
+        <v>-7</v>
+      </c>
+      <c r="I10">
+        <v>-10</v>
+      </c>
+      <c r="J10">
+        <v>-12</v>
+      </c>
+      <c r="K10">
+        <v>-15</v>
+      </c>
+      <c r="L10">
+        <v>-14</v>
+      </c>
+      <c r="M10">
+        <v>-11</v>
+      </c>
+      <c r="N10">
         <v>-4</v>
       </c>
-      <c r="D10">
-        <v>-7</v>
-      </c>
-      <c r="E10">
-        <v>-13</v>
-      </c>
-      <c r="F10">
-        <v>-14</v>
-      </c>
-      <c r="G10">
-        <v>-17</v>
-      </c>
-      <c r="H10">
-        <v>-16</v>
-      </c>
-      <c r="I10">
-        <v>-7</v>
-      </c>
-      <c r="J10">
-        <v>-10</v>
-      </c>
-      <c r="K10">
-        <v>-12</v>
-      </c>
-      <c r="L10">
-        <v>-15</v>
-      </c>
-      <c r="M10">
-        <v>-14</v>
-      </c>
-      <c r="N10">
+      <c r="O10">
         <v>-11</v>
       </c>
-      <c r="O10">
-        <v>-4</v>
-      </c>
-      <c r="P10">
-        <v>-11</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="P10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
-        <v>7</v>
+      <c r="B11">
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="H11">
-        <v>-7</v>
+        <v>-13</v>
       </c>
       <c r="I11">
-        <v>-13</v>
+        <v>-9</v>
       </c>
       <c r="J11">
         <v>-9</v>
       </c>
       <c r="K11">
-        <v>-9</v>
+        <v>-14</v>
       </c>
       <c r="L11">
-        <v>-14</v>
+        <v>-22</v>
       </c>
       <c r="M11">
-        <v>-22</v>
+        <v>-20</v>
       </c>
       <c r="N11">
-        <v>-20</v>
+        <v>-17</v>
       </c>
       <c r="O11">
-        <v>-17</v>
-      </c>
-      <c r="P11">
         <v>-16</v>
       </c>
-      <c r="Q11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="P11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" t="s">
-        <v>0</v>
+      <c r="B12">
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D12">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="E12">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="F12">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="G12">
-        <v>-8</v>
+        <v>-13</v>
       </c>
       <c r="H12">
-        <v>-13</v>
+        <v>-15</v>
       </c>
       <c r="I12">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="J12">
-        <v>-20</v>
+        <v>-27</v>
       </c>
       <c r="K12">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="L12">
-        <v>-30</v>
+        <v>-32</v>
       </c>
       <c r="M12">
         <v>-32</v>
@@ -2995,66 +3062,330 @@
         <v>-32</v>
       </c>
       <c r="O12">
-        <v>-32</v>
-      </c>
-      <c r="P12">
         <v>-37</v>
       </c>
-      <c r="Q12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="P12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13">
+        <v>-4</v>
+      </c>
+      <c r="C13">
+        <v>-7</v>
+      </c>
+      <c r="D13">
+        <v>-11</v>
+      </c>
+      <c r="E13">
+        <v>-16</v>
+      </c>
+      <c r="F13">
+        <v>-21</v>
+      </c>
+      <c r="G13">
+        <v>-24</v>
+      </c>
+      <c r="H13">
+        <v>-27</v>
+      </c>
+      <c r="I13">
+        <v>-34</v>
+      </c>
+      <c r="J13">
+        <v>-39</v>
+      </c>
+      <c r="K13">
+        <v>-43</v>
+      </c>
+      <c r="L13">
+        <v>-44</v>
+      </c>
+      <c r="M13">
+        <v>-46</v>
+      </c>
+      <c r="N13">
+        <v>-53</v>
+      </c>
+      <c r="O13">
+        <v>-49</v>
+      </c>
+      <c r="P13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="C13">
+      <c r="E2">
+        <v>-7</v>
+      </c>
+      <c r="F2">
+        <v>-53</v>
+      </c>
+      <c r="G2">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>-8</v>
+      </c>
+      <c r="F3">
+        <v>35</v>
+      </c>
+      <c r="G3">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>36</v>
+      </c>
+      <c r="F4">
         <v>-4</v>
       </c>
-      <c r="D13">
-        <v>-7</v>
-      </c>
-      <c r="E13">
+      <c r="G4">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>32</v>
+      </c>
+      <c r="F5">
+        <v>-2</v>
+      </c>
+      <c r="G5">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>-10</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>37</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>-11</v>
       </c>
-      <c r="F13">
-        <v>-16</v>
-      </c>
-      <c r="G13">
-        <v>-21</v>
-      </c>
-      <c r="H13">
-        <v>-24</v>
-      </c>
-      <c r="I13">
-        <v>-27</v>
-      </c>
-      <c r="J13">
-        <v>-34</v>
-      </c>
-      <c r="K13">
+      <c r="F8">
+        <v>-37</v>
+      </c>
+      <c r="G8">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>-8</v>
+      </c>
+      <c r="G9">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
         <v>-39</v>
       </c>
-      <c r="L13">
-        <v>-43</v>
-      </c>
-      <c r="M13">
-        <v>-44</v>
-      </c>
-      <c r="N13">
-        <v>-46</v>
-      </c>
-      <c r="O13">
-        <v>-53</v>
-      </c>
-      <c r="P13">
-        <v>-49</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>54</v>
+      <c r="F10">
+        <v>-17</v>
+      </c>
+      <c r="G10">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Pennoni Younglings 2022.xlsx
+++ b/Pennoni Younglings 2022.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="92">
   <si>
     <t>PAI Athletic Director</t>
   </si>
@@ -58,43 +58,43 @@
     <t>Team Cogs</t>
   </si>
   <si>
-    <t>4-10-0</t>
-  </si>
-  <si>
-    <t>7-7-0</t>
-  </si>
-  <si>
-    <t>11-3-0</t>
-  </si>
-  <si>
-    <t>5-9-0</t>
-  </si>
-  <si>
-    <t>8-6-0</t>
-  </si>
-  <si>
-    <t>9-5-0</t>
-  </si>
-  <si>
-    <t>6-8-0</t>
-  </si>
-  <si>
-    <t>10-4-0</t>
-  </si>
-  <si>
-    <t>12-2-0</t>
-  </si>
-  <si>
-    <t>2-12-0</t>
-  </si>
-  <si>
-    <t>1-13-0</t>
-  </si>
-  <si>
-    <t>3-11-0</t>
-  </si>
-  <si>
-    <t>13-1-0</t>
+    <t>6-11-0</t>
+  </si>
+  <si>
+    <t>8-9-0</t>
+  </si>
+  <si>
+    <t>12-5-0</t>
+  </si>
+  <si>
+    <t>5-12-0</t>
+  </si>
+  <si>
+    <t>9-8-0</t>
+  </si>
+  <si>
+    <t>10-7-0</t>
+  </si>
+  <si>
+    <t>7-10-0</t>
+  </si>
+  <si>
+    <t>11-6-0</t>
+  </si>
+  <si>
+    <t>14-3-0</t>
+  </si>
+  <si>
+    <t>3-14-0</t>
+  </si>
+  <si>
+    <t>13-4-0</t>
+  </si>
+  <si>
+    <t>4-13-0</t>
+  </si>
+  <si>
+    <t>1-16-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -175,55 +175,55 @@
     <t>Michael  Celoni</t>
   </si>
   <si>
+    <t>Henry Morris</t>
+  </si>
+  <si>
+    <t>Chris Holloway</t>
+  </si>
+  <si>
     <t>Lake George</t>
   </si>
   <si>
-    <t>Henry Morris</t>
-  </si>
-  <si>
-    <t>Chris Holloway</t>
-  </si>
-  <si>
     <t>Anthony Rizzo</t>
   </si>
   <si>
+    <t>PJ Murphy</t>
+  </si>
+  <si>
     <t>Eli Brinker</t>
   </si>
   <si>
-    <t>PJ Murphy</t>
-  </si>
-  <si>
     <t>Prahlad Singh</t>
   </si>
   <si>
     <t>Marvin Ta</t>
   </si>
   <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓11</t>
+  </si>
+  <si>
+    <t>↓9</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
     <t>↑3</t>
   </si>
   <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↑4</t>
+    <t>↑5</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -266,6 +266,15 @@
   </si>
   <si>
     <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
+  </si>
+  <si>
+    <t>Week 17</t>
   </si>
   <si>
     <t>Week</t>
@@ -696,37 +705,37 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -740,28 +749,28 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
       </c>
       <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -784,7 +793,7 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -802,7 +811,7 @@
         <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
@@ -819,28 +828,28 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
         <v>23</v>
@@ -849,7 +858,7 @@
         <v>15</v>
       </c>
       <c r="M5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -860,37 +869,37 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
       </c>
       <c r="I6" t="s">
         <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" t="s">
         <v>18</v>
-      </c>
-      <c r="L6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -904,34 +913,34 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
         <v>17</v>
       </c>
       <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" t="s">
         <v>16</v>
       </c>
-      <c r="L7" t="s">
-        <v>17</v>
-      </c>
       <c r="M7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -942,37 +951,37 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="I8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" t="s">
+      <c r="J8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" t="s">
-        <v>16</v>
-      </c>
       <c r="K8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -980,34 +989,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
       </c>
       <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s">
         <v>18</v>
-      </c>
-      <c r="J9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" t="s">
-        <v>15</v>
       </c>
       <c r="L9" t="s">
         <v>18</v>
@@ -1021,40 +1030,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" t="s">
         <v>16</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1065,7 +1074,7 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -1074,19 +1083,19 @@
         <v>18</v>
       </c>
       <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K11" t="s">
         <v>12</v>
@@ -1095,7 +1104,7 @@
         <v>15</v>
       </c>
       <c r="M11" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1106,10 +1115,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -1118,25 +1127,25 @@
         <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
         <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" t="s">
         <v>18</v>
-      </c>
-      <c r="K12" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1144,22 +1153,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s">
         <v>19</v>
@@ -1168,16 +1177,16 @@
         <v>20</v>
       </c>
       <c r="J13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" t="s">
         <v>20</v>
       </c>
-      <c r="K13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" t="s">
-        <v>24</v>
-      </c>
       <c r="M13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1212,10 +1221,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>4.833333333333333</v>
+        <v>6.5</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1223,10 +1232,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1237,13 +1246,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>6.583333333333333</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1251,13 +1260,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>6.916666666666667</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1265,13 +1274,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>7.166666666666667</v>
+        <v>8.416666666666666</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1279,13 +1288,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>7.25</v>
+        <v>8.583333333333334</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1293,13 +1302,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>7.333333333333333</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1307,13 +1316,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>7.333333333333333</v>
+        <v>8.75</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1321,13 +1330,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>7.416666666666667</v>
+        <v>8.833333333333334</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1335,13 +1344,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>7.583333333333333</v>
+        <v>9.083333333333334</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1352,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>7.75</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1363,13 +1372,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>7.833333333333333</v>
+        <v>9.416666666666666</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1407,13 +1416,13 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>11.08333333333333</v>
+        <v>12.5</v>
       </c>
       <c r="D2">
-        <v>-0.9166666666666661</v>
+        <v>-0.5</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1424,13 +1433,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>9.25</v>
+        <v>10.33333333333333</v>
       </c>
       <c r="D3">
-        <v>-0.75</v>
+        <v>-1.666666666666666</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1441,10 +1450,10 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>8.666666666666666</v>
+        <v>9.916666666666666</v>
       </c>
       <c r="D4">
-        <v>-0.3333333333333339</v>
+        <v>-0.08333333333333393</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -1458,13 +1467,13 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>7.75</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="D5">
-        <v>0.75</v>
+        <v>0.5833333333333339</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1475,13 +1484,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>7.416666666666667</v>
+        <v>9.5</v>
       </c>
       <c r="D6">
-        <v>-0.583333333333333</v>
+        <v>-1.5</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1492,10 +1501,10 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>7.083333333333333</v>
+        <v>8.75</v>
       </c>
       <c r="D7">
-        <v>0.08333333333333304</v>
+        <v>0.75</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -1509,13 +1518,13 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>6.916666666666667</v>
+        <v>8.416666666666666</v>
       </c>
       <c r="D8">
-        <v>-0.08333333333333304</v>
+        <v>-0.5833333333333339</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1523,16 +1532,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>6.75</v>
+        <v>7.75</v>
       </c>
       <c r="D9">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1540,16 +1549,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>7.75</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1557,13 +1566,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>5.083333333333333</v>
+        <v>6.5</v>
       </c>
       <c r="D11">
-        <v>1.083333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -1574,13 +1583,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>4.25</v>
+        <v>6.5</v>
       </c>
       <c r="D12">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -1594,13 +1603,13 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="D13">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1665,31 +1674,31 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>64.73</v>
+        <v>66.95</v>
       </c>
       <c r="C2">
-        <v>21.73</v>
+        <v>20.44</v>
       </c>
       <c r="D2">
-        <v>8.16</v>
+        <v>7.53</v>
       </c>
       <c r="E2">
-        <v>3.13</v>
+        <v>3.41</v>
       </c>
       <c r="F2">
-        <v>1.52</v>
+        <v>1.07</v>
       </c>
       <c r="G2">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="H2">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I2">
-        <v>0.06999999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="J2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1701,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>99.99000000000001</v>
+        <v>99.98</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1709,43 +1718,43 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13.39</v>
+        <v>13.2</v>
       </c>
       <c r="C3">
-        <v>23.25</v>
+        <v>24.89</v>
       </c>
       <c r="D3">
-        <v>19.41</v>
+        <v>20.26</v>
       </c>
       <c r="E3">
-        <v>14.17</v>
+        <v>14.48</v>
       </c>
       <c r="F3">
-        <v>11.32</v>
+        <v>10.47</v>
       </c>
       <c r="G3">
-        <v>8.219999999999999</v>
+        <v>7.829999999999999</v>
       </c>
       <c r="H3">
-        <v>5.510000000000001</v>
+        <v>5.27</v>
       </c>
       <c r="I3">
-        <v>3.59</v>
+        <v>2.69</v>
       </c>
       <c r="J3">
-        <v>0.97</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="K3">
-        <v>0.17</v>
+        <v>0.04</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>98.86</v>
+        <v>99.09</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1753,43 +1762,43 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>11.14</v>
+        <v>10.78</v>
       </c>
       <c r="C4">
-        <v>19.09</v>
+        <v>19.15</v>
       </c>
       <c r="D4">
-        <v>20.88</v>
+        <v>20.67</v>
       </c>
       <c r="E4">
-        <v>16.48</v>
+        <v>17.34</v>
       </c>
       <c r="F4">
-        <v>12.39</v>
+        <v>12.96</v>
       </c>
       <c r="G4">
-        <v>9.569999999999999</v>
+        <v>9.07</v>
       </c>
       <c r="H4">
-        <v>5.87</v>
+        <v>5.949999999999999</v>
       </c>
       <c r="I4">
-        <v>3.35</v>
+        <v>3.22</v>
       </c>
       <c r="J4">
-        <v>1.06</v>
+        <v>0.73</v>
       </c>
       <c r="K4">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>98.77000000000001</v>
+        <v>99.14</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1797,43 +1806,43 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>3.11</v>
+        <v>2.47</v>
       </c>
       <c r="C5">
-        <v>8.390000000000001</v>
+        <v>8.27</v>
       </c>
       <c r="D5">
-        <v>10.57</v>
+        <v>12.07</v>
       </c>
       <c r="E5">
-        <v>13.63</v>
+        <v>12.84</v>
       </c>
       <c r="F5">
-        <v>14.39</v>
+        <v>14.71</v>
       </c>
       <c r="G5">
-        <v>14.5</v>
+        <v>15.32</v>
       </c>
       <c r="H5">
-        <v>14.94</v>
+        <v>14.63</v>
       </c>
       <c r="I5">
-        <v>12.45</v>
+        <v>12.93</v>
       </c>
       <c r="J5">
-        <v>6.18</v>
+        <v>5.5</v>
       </c>
       <c r="K5">
-        <v>1.42</v>
+        <v>0.98</v>
       </c>
       <c r="L5">
-        <v>0.37</v>
+        <v>0.23</v>
       </c>
       <c r="M5">
         <v>0.05</v>
       </c>
       <c r="N5">
-        <v>91.98</v>
+        <v>93.23999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1841,43 +1850,43 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>2.45</v>
+        <v>2.32</v>
       </c>
       <c r="C6">
-        <v>8.359999999999999</v>
+        <v>7.94</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>11.26</v>
       </c>
       <c r="E6">
-        <v>12.99</v>
+        <v>13.38</v>
       </c>
       <c r="F6">
-        <v>14.98</v>
+        <v>14.13</v>
       </c>
       <c r="G6">
-        <v>14.78</v>
+        <v>15.19</v>
       </c>
       <c r="H6">
-        <v>14.38</v>
+        <v>15.33</v>
       </c>
       <c r="I6">
-        <v>11.94</v>
+        <v>12.24</v>
       </c>
       <c r="J6">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="K6">
-        <v>1.67</v>
+        <v>1.49</v>
       </c>
       <c r="L6">
-        <v>0.49</v>
+        <v>0.27</v>
       </c>
       <c r="M6">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="N6">
-        <v>90.88</v>
+        <v>91.78999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1885,43 +1894,43 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2.4</v>
+        <v>2.01</v>
       </c>
       <c r="C7">
-        <v>8.09</v>
+        <v>8.17</v>
       </c>
       <c r="D7">
-        <v>11.53</v>
+        <v>11.02</v>
       </c>
       <c r="E7">
-        <v>13.37</v>
+        <v>13.35</v>
       </c>
       <c r="F7">
-        <v>14.45</v>
+        <v>15.14</v>
       </c>
       <c r="G7">
-        <v>15.14</v>
+        <v>15.21</v>
       </c>
       <c r="H7">
         <v>14.25</v>
       </c>
       <c r="I7">
-        <v>12.09</v>
+        <v>12.15</v>
       </c>
       <c r="J7">
-        <v>6.64</v>
+        <v>6.819999999999999</v>
       </c>
       <c r="K7">
-        <v>1.75</v>
+        <v>1.52</v>
       </c>
       <c r="L7">
-        <v>0.17</v>
+        <v>0.28</v>
       </c>
       <c r="M7">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="N7">
-        <v>91.31999999999999</v>
+        <v>91.30000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1929,43 +1938,43 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>1.8</v>
+        <v>1.58</v>
       </c>
       <c r="C8">
-        <v>6.29</v>
+        <v>6.19</v>
       </c>
       <c r="D8">
-        <v>10.07</v>
+        <v>9.26</v>
       </c>
       <c r="E8">
-        <v>13.41</v>
+        <v>12.6</v>
       </c>
       <c r="F8">
-        <v>14.3</v>
+        <v>14.46</v>
       </c>
       <c r="G8">
-        <v>15.17</v>
+        <v>15.36</v>
       </c>
       <c r="H8">
-        <v>15.01</v>
+        <v>15.9</v>
       </c>
       <c r="I8">
-        <v>12.78</v>
+        <v>13.93</v>
       </c>
       <c r="J8">
-        <v>8.210000000000001</v>
+        <v>7.779999999999999</v>
       </c>
       <c r="K8">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="L8">
-        <v>0.75</v>
+        <v>0.54</v>
       </c>
       <c r="M8">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="N8">
-        <v>88.83</v>
+        <v>89.28</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1973,43 +1982,43 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.9400000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C9">
-        <v>4.52</v>
+        <v>4.7</v>
       </c>
       <c r="D9">
-        <v>7.380000000000001</v>
+        <v>7.149999999999999</v>
       </c>
       <c r="E9">
-        <v>10.69</v>
+        <v>10.72</v>
       </c>
       <c r="F9">
-        <v>12.78</v>
+        <v>13.64</v>
       </c>
       <c r="G9">
-        <v>14.26</v>
+        <v>14.86</v>
       </c>
       <c r="H9">
-        <v>16.16</v>
+        <v>16.39</v>
       </c>
       <c r="I9">
-        <v>16.76</v>
+        <v>15.96</v>
       </c>
       <c r="J9">
-        <v>11.16</v>
+        <v>10.89</v>
       </c>
       <c r="K9">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="L9">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="M9">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="N9">
-        <v>83.49000000000001</v>
+        <v>84.11</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2017,43 +2026,43 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="D10">
-        <v>0.9199999999999999</v>
+        <v>0.74</v>
       </c>
       <c r="E10">
-        <v>2.03</v>
+        <v>1.78</v>
       </c>
       <c r="F10">
-        <v>3.48</v>
+        <v>3.16</v>
       </c>
       <c r="G10">
-        <v>6.78</v>
+        <v>5.93</v>
       </c>
       <c r="H10">
-        <v>10.9</v>
+        <v>9.93</v>
       </c>
       <c r="I10">
-        <v>18.07</v>
+        <v>18.14</v>
       </c>
       <c r="J10">
-        <v>28.05</v>
+        <v>30.87</v>
       </c>
       <c r="K10">
-        <v>16.68</v>
+        <v>17.48</v>
       </c>
       <c r="L10">
-        <v>8.48</v>
+        <v>8.32</v>
       </c>
       <c r="M10">
-        <v>4.3</v>
+        <v>3.42</v>
       </c>
       <c r="N10">
-        <v>42.48999999999999</v>
+        <v>39.91</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2064,40 +2073,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D11">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="E11">
-        <v>0.06999999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="F11">
-        <v>0.34</v>
+        <v>0.2</v>
       </c>
       <c r="G11">
-        <v>0.74</v>
+        <v>0.62</v>
       </c>
       <c r="H11">
-        <v>1.82</v>
+        <v>1.61</v>
       </c>
       <c r="I11">
-        <v>5.53</v>
+        <v>5.56</v>
       </c>
       <c r="J11">
-        <v>15.55</v>
+        <v>15.29</v>
       </c>
       <c r="K11">
-        <v>27.57</v>
+        <v>28.02</v>
       </c>
       <c r="L11">
-        <v>25.35</v>
+        <v>25.4</v>
       </c>
       <c r="M11">
-        <v>22.94</v>
+        <v>23.15</v>
       </c>
       <c r="N11">
-        <v>8.59</v>
+        <v>8.140000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2114,34 +2123,34 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F12">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G12">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="H12">
-        <v>0.54</v>
+        <v>0.32</v>
       </c>
       <c r="I12">
-        <v>1.88</v>
+        <v>1.62</v>
       </c>
       <c r="J12">
-        <v>8.59</v>
+        <v>8.1</v>
       </c>
       <c r="K12">
-        <v>25.65</v>
+        <v>25.19</v>
       </c>
       <c r="L12">
-        <v>33.21</v>
+        <v>34.32</v>
       </c>
       <c r="M12">
-        <v>29.89</v>
+        <v>30.29</v>
       </c>
       <c r="N12">
-        <v>2.66</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2158,34 +2167,34 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G13">
-        <v>0.16</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="H13">
-        <v>0.47</v>
+        <v>0.3</v>
       </c>
       <c r="I13">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="J13">
-        <v>6.68</v>
+        <v>6.75</v>
       </c>
       <c r="K13">
-        <v>18.89</v>
+        <v>19.22</v>
       </c>
       <c r="L13">
-        <v>30.07</v>
+        <v>29.5</v>
       </c>
       <c r="M13">
-        <v>42.22</v>
+        <v>42.61</v>
       </c>
       <c r="N13">
-        <v>2.14</v>
+        <v>1.92</v>
       </c>
     </row>
   </sheetData>
@@ -2229,10 +2238,10 @@
         <v>47</v>
       </c>
       <c r="D2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
         <v>59</v>
@@ -2249,10 +2258,10 @@
         <v>48</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
         <v>60</v>
@@ -2269,10 +2278,10 @@
         <v>49</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>61</v>
@@ -2289,13 +2298,13 @@
         <v>50</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2303,19 +2312,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>51</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2323,7 +2332,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>52</v>
@@ -2332,7 +2341,7 @@
         <v>-2</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
         <v>63</v>
@@ -2343,16 +2352,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>53</v>
       </c>
       <c r="D8">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>64</v>
@@ -2369,13 +2378,13 @@
         <v>54</v>
       </c>
       <c r="D9">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2383,7 +2392,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>55</v>
@@ -2392,10 +2401,10 @@
         <v>-11</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2403,19 +2412,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>56</v>
       </c>
       <c r="D11">
-        <v>-16</v>
+        <v>-20</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2429,13 +2438,13 @@
         <v>57</v>
       </c>
       <c r="D12">
-        <v>-37</v>
+        <v>-23</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2449,13 +2458,13 @@
         <v>58</v>
       </c>
       <c r="D13">
-        <v>-49</v>
+        <v>-55</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2465,13 +2474,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>68</v>
       </c>
@@ -2515,10 +2524,19 @@
         <v>81</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2564,11 +2582,20 @@
       <c r="O2">
         <v>44</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2">
+        <v>46</v>
+      </c>
+      <c r="Q2">
+        <v>46</v>
+      </c>
+      <c r="R2">
+        <v>50</v>
+      </c>
+      <c r="S2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2614,11 +2641,20 @@
       <c r="O3">
         <v>35</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3">
+        <v>34</v>
+      </c>
+      <c r="Q3">
+        <v>31</v>
+      </c>
+      <c r="R3">
+        <v>37</v>
+      </c>
+      <c r="S3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2664,11 +2700,20 @@
       <c r="O4">
         <v>32</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4">
+        <v>30</v>
+      </c>
+      <c r="Q4">
+        <v>29</v>
+      </c>
+      <c r="R4">
+        <v>18</v>
+      </c>
+      <c r="S4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2714,161 +2759,197 @@
       <c r="O5">
         <v>18</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5">
+        <v>15</v>
+      </c>
+      <c r="Q5">
+        <v>12</v>
+      </c>
+      <c r="R5">
+        <v>16</v>
+      </c>
+      <c r="S5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>-3</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>-3</v>
+      </c>
+      <c r="H6">
+        <v>-11</v>
+      </c>
+      <c r="I6">
+        <v>-10</v>
+      </c>
+      <c r="J6">
+        <v>-17</v>
+      </c>
+      <c r="K6">
+        <v>-10</v>
+      </c>
+      <c r="L6">
+        <v>-7</v>
+      </c>
+      <c r="M6">
+        <v>-7</v>
+      </c>
+      <c r="N6">
+        <v>-2</v>
+      </c>
+      <c r="O6">
+        <v>-2</v>
+      </c>
+      <c r="P6">
+        <v>8</v>
+      </c>
+      <c r="Q6">
+        <v>10</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:19">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>17</v>
+      </c>
+      <c r="H7">
+        <v>16</v>
+      </c>
+      <c r="I7">
+        <v>17</v>
+      </c>
+      <c r="J7">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <v>15</v>
+      </c>
+      <c r="L7">
+        <v>9</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>-7</v>
+      </c>
+      <c r="O7">
+        <v>-6</v>
+      </c>
+      <c r="P7">
+        <v>-6</v>
+      </c>
+      <c r="Q7">
+        <v>-4</v>
+      </c>
+      <c r="R7">
+        <v>-2</v>
+      </c>
+      <c r="S7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B8">
         <v>-2</v>
       </c>
-      <c r="C6">
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="D6">
+      <c r="D8">
         <v>-4</v>
       </c>
-      <c r="E6">
+      <c r="E8">
         <v>-5</v>
       </c>
-      <c r="F6">
+      <c r="F8">
         <v>-1</v>
       </c>
-      <c r="G6">
+      <c r="G8">
         <v>2</v>
       </c>
-      <c r="H6">
+      <c r="H8">
         <v>-1</v>
       </c>
-      <c r="I6">
+      <c r="I8">
         <v>1</v>
       </c>
-      <c r="J6">
+      <c r="J8">
         <v>9</v>
       </c>
-      <c r="K6">
+      <c r="K8">
         <v>7</v>
-      </c>
-      <c r="L6">
-        <v>9</v>
-      </c>
-      <c r="M6">
-        <v>10</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>-1</v>
-      </c>
-      <c r="C7">
-        <v>-3</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>-3</v>
-      </c>
-      <c r="H7">
-        <v>-11</v>
-      </c>
-      <c r="I7">
-        <v>-10</v>
-      </c>
-      <c r="J7">
-        <v>-17</v>
-      </c>
-      <c r="K7">
-        <v>-10</v>
-      </c>
-      <c r="L7">
-        <v>-7</v>
-      </c>
-      <c r="M7">
-        <v>-7</v>
-      </c>
-      <c r="N7">
-        <v>-2</v>
-      </c>
-      <c r="O7">
-        <v>-2</v>
-      </c>
-      <c r="P7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-      <c r="G8">
-        <v>17</v>
-      </c>
-      <c r="H8">
-        <v>16</v>
-      </c>
-      <c r="I8">
-        <v>17</v>
-      </c>
-      <c r="J8">
-        <v>17</v>
-      </c>
-      <c r="K8">
-        <v>15</v>
       </c>
       <c r="L8">
         <v>9</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N8">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>-6</v>
-      </c>
-      <c r="P8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>-4</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>-4</v>
+      </c>
+      <c r="S8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -2914,111 +2995,138 @@
       <c r="O9">
         <v>-8</v>
       </c>
-      <c r="P9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>-1</v>
+      </c>
+      <c r="R9">
+        <v>-7</v>
+      </c>
+      <c r="S9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>-7</v>
+      </c>
+      <c r="H10">
+        <v>-13</v>
+      </c>
+      <c r="I10">
+        <v>-9</v>
+      </c>
+      <c r="J10">
+        <v>-9</v>
+      </c>
+      <c r="K10">
+        <v>-14</v>
+      </c>
+      <c r="L10">
+        <v>-22</v>
+      </c>
+      <c r="M10">
+        <v>-20</v>
+      </c>
+      <c r="N10">
+        <v>-17</v>
+      </c>
+      <c r="O10">
+        <v>-16</v>
+      </c>
+      <c r="P10">
+        <v>-10</v>
+      </c>
+      <c r="Q10">
+        <v>-15</v>
+      </c>
+      <c r="R10">
+        <v>-11</v>
+      </c>
+      <c r="S10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>-4</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>-7</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>-13</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>-14</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>-17</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>-16</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>-7</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>-10</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>-12</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <v>-15</v>
       </c>
-      <c r="L10">
+      <c r="L11">
         <v>-14</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>-11</v>
       </c>
-      <c r="N10">
+      <c r="N11">
         <v>-4</v>
       </c>
-      <c r="O10">
+      <c r="O11">
         <v>-11</v>
       </c>
-      <c r="P10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>-7</v>
-      </c>
-      <c r="H11">
-        <v>-13</v>
-      </c>
-      <c r="I11">
-        <v>-9</v>
-      </c>
-      <c r="J11">
-        <v>-9</v>
-      </c>
-      <c r="K11">
-        <v>-14</v>
-      </c>
-      <c r="L11">
-        <v>-22</v>
-      </c>
-      <c r="M11">
+      <c r="P11">
         <v>-20</v>
       </c>
-      <c r="N11">
-        <v>-17</v>
-      </c>
-      <c r="O11">
-        <v>-16</v>
-      </c>
-      <c r="P11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11">
+        <v>-23</v>
+      </c>
+      <c r="R11">
+        <v>-20</v>
+      </c>
+      <c r="S11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -3064,11 +3172,20 @@
       <c r="O12">
         <v>-37</v>
       </c>
-      <c r="P12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="P12">
+        <v>-33</v>
+      </c>
+      <c r="Q12">
+        <v>-28</v>
+      </c>
+      <c r="R12">
+        <v>-23</v>
+      </c>
+      <c r="S12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -3114,8 +3231,17 @@
       <c r="O13">
         <v>-49</v>
       </c>
-      <c r="P13" t="s">
-        <v>67</v>
+      <c r="P13">
+        <v>-60</v>
+      </c>
+      <c r="Q13">
+        <v>-57</v>
+      </c>
+      <c r="R13">
+        <v>-55</v>
+      </c>
+      <c r="S13" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3125,7 +3251,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3133,25 +3259,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3237,22 +3363,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F5">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
         <v>8</v>
@@ -3263,22 +3389,22 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
       <c r="E6">
-        <v>-10</v>
+        <v>32</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>-2</v>
       </c>
       <c r="G6">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
         <v>8</v>
@@ -3289,25 +3415,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>37</v>
+        <v>-10</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3315,77 +3441,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>37</v>
+      </c>
+      <c r="F8">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>-11</v>
-      </c>
-      <c r="F8">
-        <v>-37</v>
-      </c>
       <c r="G8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>15</v>
-      </c>
-      <c r="F9">
-        <v>-8</v>
-      </c>
-      <c r="G9">
-        <v>23</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>-39</v>
-      </c>
-      <c r="F10">
-        <v>-17</v>
-      </c>
-      <c r="G10">
-        <v>22</v>
-      </c>
-      <c r="H10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Pennoni Younglings 2022.xlsx
+++ b/Pennoni Younglings 2022.xlsx
@@ -4059,7 +4059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4090,30 +4090,50 @@
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Team 1 LPI</t>
+          <t>LPI 1</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
+          <t>Total Points 1</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Record 1</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
           <t>Team 2</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Seed 2</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Score 2</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>Team 2 LPI</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>LPI 2</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Total Points 2</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>Record 2</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>Winner</t>
         </is>
@@ -4139,21 +4159,37 @@
       <c r="E2" t="n">
         <v>46</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>1640.26</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12-2-0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Rizzo's Crash Test Dummy</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>8</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>105.4</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>-6</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="n">
+        <v>1431.64</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>6-8-0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>Team Cogs</t>
         </is>
@@ -4179,21 +4215,37 @@
       <c r="E3" t="n">
         <v>30</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="n">
+        <v>1553.28</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10-4-0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Came and Wentz</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>7</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>95.66</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>-4</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="L3" t="n">
+        <v>1453.54</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>7-7-0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>The Golden Receivers</t>
         </is>
@@ -4219,21 +4271,37 @@
       <c r="E4" t="n">
         <v>15</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="n">
+        <v>1539.04</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>9-5-0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">PAI Alcoholics Anonymous </t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>6</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>109.64</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>34</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="L4" t="n">
+        <v>1463.36</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>7-7-0</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t xml:space="preserve">PAI Alcoholics Anonymous </t>
         </is>
@@ -4259,21 +4327,37 @@
       <c r="E5" t="n">
         <v>8</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="n">
+        <v>1482.64</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>8-6-0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Book of MoreMoms</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>5</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>117.74</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="L5" t="n">
+        <v>1467.52</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>7-7-0</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>Philadelphia British Army</t>
         </is>
@@ -4299,21 +4383,37 @@
       <c r="E6" t="n">
         <v>46</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="n">
+        <v>1640.26</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>12-2-0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Philadelphia British Army</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>4</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>145.68</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>10</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="L6" t="n">
+        <v>1482.64</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>8-6-0</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>Philadelphia British Army</t>
         </is>
@@ -4339,21 +4439,37 @@
       <c r="E7" t="n">
         <v>29</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="n">
+        <v>1553.28</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>10-4-0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">PAI Alcoholics Anonymous </t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>6</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>84.36</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>31</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="L7" t="n">
+        <v>1463.36</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>7-7-0</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>The Golden Receivers</t>
         </is>
@@ -4379,21 +4495,37 @@
       <c r="E8" t="n">
         <v>1</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="n">
+        <v>1482.64</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>8-6-0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>The Golden Receivers</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>2</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>27</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>18</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="L8" t="n">
+        <v>1553.28</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>10-4-0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>Philadelphia British Army</t>
         </is>
